--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Igf2</t>
+  </si>
+  <si>
+    <t>Igf1r</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Igf2</t>
-  </si>
-  <si>
-    <t>Igf1r</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H2">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I2">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J2">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N2">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q2">
-        <v>47.50990693444312</v>
+        <v>78.58984326922246</v>
       </c>
       <c r="R2">
-        <v>427.589162409988</v>
+        <v>707.3085894230021</v>
       </c>
       <c r="S2">
-        <v>0.003141979053084653</v>
+        <v>0.05966532957521593</v>
       </c>
       <c r="T2">
-        <v>0.003141979053084653</v>
+        <v>0.05966532957521593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H3">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I3">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J3">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>32.186352</v>
       </c>
       <c r="O3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q3">
-        <v>60.72195987187732</v>
+        <v>78.48032897894933</v>
       </c>
       <c r="R3">
-        <v>546.4976388468959</v>
+        <v>706.322960810544</v>
       </c>
       <c r="S3">
-        <v>0.004015733523598445</v>
+        <v>0.05958218643673227</v>
       </c>
       <c r="T3">
-        <v>0.004015733523598445</v>
+        <v>0.05958218643673227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H4">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I4">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J4">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N4">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q4">
-        <v>13.99196295056755</v>
+        <v>33.042983076404</v>
       </c>
       <c r="R4">
-        <v>125.927666555108</v>
+        <v>297.386847687636</v>
       </c>
       <c r="S4">
-        <v>0.000925332364108431</v>
+        <v>0.02508619935337138</v>
       </c>
       <c r="T4">
-        <v>0.000925332364108431</v>
+        <v>0.02508619935337138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H5">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I5">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J5">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N5">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q5">
-        <v>83.38331499136532</v>
+        <v>35.11061697312245</v>
       </c>
       <c r="R5">
-        <v>750.449834922288</v>
+        <v>315.995552758102</v>
       </c>
       <c r="S5">
-        <v>0.005514399963804102</v>
+        <v>0.0266559449178966</v>
       </c>
       <c r="T5">
-        <v>0.005514399963804102</v>
+        <v>0.0266559449178966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H6">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I6">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J6">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N6">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q6">
-        <v>274.3177055281674</v>
+        <v>411.1432183961154</v>
       </c>
       <c r="R6">
-        <v>2468.859349753507</v>
+        <v>3700.288965565038</v>
       </c>
       <c r="S6">
-        <v>0.01814148964444501</v>
+        <v>0.3121395158428327</v>
       </c>
       <c r="T6">
-        <v>0.01814148964444501</v>
+        <v>0.3121395158428327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H7">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I7">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J7">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N7">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q7">
-        <v>16.64919786534322</v>
+        <v>23.873678821909</v>
       </c>
       <c r="R7">
-        <v>149.842780788089</v>
+        <v>214.863109397181</v>
       </c>
       <c r="S7">
-        <v>0.001101063637437817</v>
+        <v>0.01812487283124398</v>
       </c>
       <c r="T7">
-        <v>0.001101063637437817</v>
+        <v>0.01812487283124398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.645556</v>
       </c>
       <c r="I8">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J8">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N8">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q8">
-        <v>10.20073393941511</v>
+        <v>13.05565390598845</v>
       </c>
       <c r="R8">
-        <v>91.806605454736</v>
+        <v>117.500885153896</v>
       </c>
       <c r="S8">
-        <v>0.0006746065069745784</v>
+        <v>0.00991183924940868</v>
       </c>
       <c r="T8">
-        <v>0.0006746065069745784</v>
+        <v>0.009911839249408682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.645556</v>
       </c>
       <c r="I9">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J9">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>32.186352</v>
       </c>
       <c r="O9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q9">
         <v>13.03746096130133</v>
@@ -1013,10 +1013,10 @@
         <v>117.337148651712</v>
       </c>
       <c r="S9">
-        <v>0.0008622081559187513</v>
+        <v>0.009898027184190764</v>
       </c>
       <c r="T9">
-        <v>0.0008622081559187513</v>
+        <v>0.009898027184190765</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.645556</v>
       </c>
       <c r="I10">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J10">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N10">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q10">
-        <v>3.004179560819555</v>
+        <v>5.489230326991999</v>
       </c>
       <c r="R10">
-        <v>27.037616047376</v>
+        <v>49.403072942928</v>
       </c>
       <c r="S10">
-        <v>0.0001986758101804885</v>
+        <v>0.00416741811600623</v>
       </c>
       <c r="T10">
-        <v>0.0001986758101804885</v>
+        <v>0.004167418116006231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.645556</v>
       </c>
       <c r="I11">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J11">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N11">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q11">
-        <v>17.90302415003733</v>
+        <v>5.832713803188445</v>
       </c>
       <c r="R11">
-        <v>161.127217350336</v>
+        <v>52.494424228696</v>
       </c>
       <c r="S11">
-        <v>0.001183983099438696</v>
+        <v>0.004428190423958238</v>
       </c>
       <c r="T11">
-        <v>0.001183983099438696</v>
+        <v>0.004428190423958239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>3.645556</v>
       </c>
       <c r="I12">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J12">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N12">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q12">
-        <v>58.89807220260045</v>
+        <v>68.30072871866933</v>
       </c>
       <c r="R12">
-        <v>530.082649823404</v>
+        <v>614.706558468024</v>
       </c>
       <c r="S12">
-        <v>0.003895114115525202</v>
+        <v>0.05185384420817079</v>
       </c>
       <c r="T12">
-        <v>0.003895114115525202</v>
+        <v>0.0518538442081708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>3.645556</v>
       </c>
       <c r="I13">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J13">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N13">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q13">
-        <v>3.574707859634222</v>
+        <v>3.965989435732</v>
       </c>
       <c r="R13">
-        <v>32.172370736708</v>
+        <v>35.69390492158799</v>
       </c>
       <c r="S13">
-        <v>0.0002364066347544288</v>
+        <v>0.003010975170979184</v>
       </c>
       <c r="T13">
-        <v>0.0002364066347544288</v>
+        <v>0.003010975170979185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H14">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I14">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J14">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N14">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q14">
-        <v>1.249680538958667</v>
+        <v>0.06370688787488889</v>
       </c>
       <c r="R14">
-        <v>11.247124850628</v>
+        <v>0.5733619908740001</v>
       </c>
       <c r="S14">
-        <v>8.264529084162675E-05</v>
+        <v>4.836620488280279E-05</v>
       </c>
       <c r="T14">
-        <v>8.264529084162675E-05</v>
+        <v>4.83662048828028E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H15">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I15">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J15">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>32.186352</v>
       </c>
       <c r="O15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q15">
-        <v>1.597204802864</v>
+        <v>0.06361811285866666</v>
       </c>
       <c r="R15">
-        <v>14.374843225776</v>
+        <v>0.5725630157279999</v>
       </c>
       <c r="S15">
-        <v>0.0001056281596385685</v>
+        <v>4.829880698021632E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001056281596385685</v>
+        <v>4.829880698021633E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H16">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I16">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J16">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N16">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q16">
-        <v>0.3680386877053333</v>
+        <v>0.02678546654799999</v>
       </c>
       <c r="R16">
-        <v>3.312348189348</v>
+        <v>0.241069198932</v>
       </c>
       <c r="S16">
-        <v>2.433955193998899E-05</v>
+        <v>2.033549912979936E-05</v>
       </c>
       <c r="T16">
-        <v>2.433955193998899E-05</v>
+        <v>2.033549912979936E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H17">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I17">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J17">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N17">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q17">
-        <v>2.193279522992</v>
+        <v>0.02846154217488889</v>
       </c>
       <c r="R17">
-        <v>19.739515706928</v>
+        <v>0.256153879574</v>
       </c>
       <c r="S17">
-        <v>0.000145048449122607</v>
+        <v>2.160797405163796E-05</v>
       </c>
       <c r="T17">
-        <v>0.000145048449122607</v>
+        <v>2.160797405163797E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H18">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I18">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J18">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N18">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q18">
-        <v>7.215537141829667</v>
+        <v>0.3332829514006667</v>
       </c>
       <c r="R18">
-        <v>64.93983427646701</v>
+        <v>2.999546562606</v>
       </c>
       <c r="S18">
-        <v>0.0004771860864233212</v>
+        <v>0.0002530280798372457</v>
       </c>
       <c r="T18">
-        <v>0.0004771860864233212</v>
+        <v>0.0002530280798372458</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H19">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I19">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J19">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N19">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q19">
-        <v>0.4379334733343333</v>
+        <v>0.019352599733</v>
       </c>
       <c r="R19">
-        <v>3.941401260009</v>
+        <v>0.174173397597</v>
       </c>
       <c r="S19">
-        <v>2.896191318075479E-05</v>
+        <v>1.469247415663035E-05</v>
       </c>
       <c r="T19">
-        <v>2.896191318075479E-05</v>
+        <v>1.469247415663035E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H20">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I20">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J20">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N20">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q20">
-        <v>1377.446307175968</v>
+        <v>63.76585318540999</v>
       </c>
       <c r="R20">
-        <v>12397.01676458371</v>
+        <v>573.89267866869</v>
       </c>
       <c r="S20">
-        <v>0.09109484154257753</v>
+        <v>0.04841097128695115</v>
       </c>
       <c r="T20">
-        <v>0.09109484154257752</v>
+        <v>0.04841097128695116</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H21">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I21">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J21">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>32.186352</v>
       </c>
       <c r="O21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q21">
-        <v>1760.501015197056</v>
+        <v>63.67699600151999</v>
       </c>
       <c r="R21">
-        <v>15844.50913677351</v>
+        <v>573.0929640136799</v>
       </c>
       <c r="S21">
-        <v>0.1164274499698776</v>
+        <v>0.04834351100275436</v>
       </c>
       <c r="T21">
-        <v>0.1164274499698776</v>
+        <v>0.04834351100275437</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H22">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I22">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J22">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N22">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q22">
-        <v>405.6665007362881</v>
+        <v>26.81025842537999</v>
       </c>
       <c r="R22">
-        <v>3650.998506626592</v>
+        <v>241.29232582842</v>
       </c>
       <c r="S22">
-        <v>0.02682799715036965</v>
+        <v>0.02035432109804783</v>
       </c>
       <c r="T22">
-        <v>0.02682799715036964</v>
+        <v>0.02035432109804783</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H23">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I23">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J23">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N23">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q23">
-        <v>2417.517665808768</v>
+        <v>28.48788538091</v>
       </c>
       <c r="R23">
-        <v>21757.65899227892</v>
+        <v>256.39096842819</v>
       </c>
       <c r="S23">
-        <v>0.1598780203235161</v>
+        <v>0.02162797378702276</v>
       </c>
       <c r="T23">
-        <v>0.1598780203235161</v>
+        <v>0.02162797378702276</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H24">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I24">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J24">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N24">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q24">
-        <v>7953.244593683354</v>
+        <v>333.59142876279</v>
       </c>
       <c r="R24">
-        <v>71579.20134315018</v>
+        <v>3002.32285886511</v>
       </c>
       <c r="S24">
-        <v>0.5259729923675289</v>
+        <v>0.2532622755387759</v>
       </c>
       <c r="T24">
-        <v>0.5259729923675288</v>
+        <v>0.2532622755387759</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H25">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I25">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J25">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N25">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q25">
-        <v>482.707241432904</v>
+        <v>19.37051195710499</v>
       </c>
       <c r="R25">
-        <v>4344.365172896136</v>
+        <v>174.334607613945</v>
       </c>
       <c r="S25">
-        <v>0.03192294279690401</v>
+        <v>0.01470607309906606</v>
       </c>
       <c r="T25">
-        <v>0.03192294279690401</v>
+        <v>0.01470607309906606</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H26">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I26">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J26">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N26">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O26">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P26">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q26">
-        <v>10.30194504337911</v>
+        <v>1.311393519742</v>
       </c>
       <c r="R26">
-        <v>92.71750539041201</v>
+        <v>11.802541677678</v>
       </c>
       <c r="S26">
-        <v>0.0006812999144997345</v>
+        <v>0.0009956086346955631</v>
       </c>
       <c r="T26">
-        <v>0.0006812999144997345</v>
+        <v>0.0009956086346955633</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H27">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I27">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J27">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>32.186352</v>
       </c>
       <c r="O27">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P27">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q27">
-        <v>13.16681790998934</v>
+        <v>1.309566103824</v>
       </c>
       <c r="R27">
-        <v>118.501361189904</v>
+        <v>11.786094934416</v>
       </c>
       <c r="S27">
-        <v>0.000870762936371373</v>
+        <v>0.0009942212623776801</v>
       </c>
       <c r="T27">
-        <v>0.0008707629363713729</v>
+        <v>0.0009942212623776803</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H28">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I28">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J28">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N28">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O28">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P28">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q28">
-        <v>3.033986860143556</v>
+        <v>0.5513734609559998</v>
       </c>
       <c r="R28">
-        <v>27.305881741292</v>
+        <v>4.962361148603999</v>
       </c>
       <c r="S28">
-        <v>0.0002006470603080517</v>
+        <v>0.0004186021742564122</v>
       </c>
       <c r="T28">
-        <v>0.0002006470603080516</v>
+        <v>0.0004186021742564123</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H29">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I29">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J29">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N29">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O29">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P29">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q29">
-        <v>18.08065694090133</v>
+        <v>0.585875141842</v>
       </c>
       <c r="R29">
-        <v>162.725912468112</v>
+        <v>5.272876276578</v>
       </c>
       <c r="S29">
-        <v>0.001195730512642553</v>
+        <v>0.0004447958155124484</v>
       </c>
       <c r="T29">
-        <v>0.001195730512642553</v>
+        <v>0.0004447958155124484</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,25 +2270,25 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H30">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I30">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J30">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N30">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O30">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P30">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q30">
-        <v>59.48245553662146</v>
+        <v>6.860562763098</v>
       </c>
       <c r="R30">
-        <v>535.3420998295931</v>
+        <v>61.745064867882</v>
       </c>
       <c r="S30">
-        <v>0.003933761217002361</v>
+        <v>0.005208532315422011</v>
       </c>
       <c r="T30">
-        <v>0.003933761217002361</v>
+        <v>0.005208532315422012</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,25 +2332,25 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H31">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I31">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J31">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N31">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O31">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P31">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q31">
-        <v>3.610175908401223</v>
+        <v>0.3983693871509999</v>
       </c>
       <c r="R31">
-        <v>32.491583175611</v>
+        <v>3.585324484359</v>
       </c>
       <c r="S31">
-        <v>0.000238752247984812</v>
+        <v>0.0003024416360727062</v>
       </c>
       <c r="T31">
-        <v>0.0002387522479848119</v>
+        <v>0.0003024416360727063</v>
       </c>
     </row>
   </sheetData>
